--- a/patient_data/patient_34.xlsx
+++ b/patient_data/patient_34.xlsx
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1090,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
